--- a/bots/crawl_ch/output/bread_coop_2023-02-04.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-04.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2174,45 +2174,45 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3725524</t>
+          <t>5836746</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig rund ausgewallt Ø32cm</t>
+          <t>Betty Bossi Butterpastetli</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rund-ausgewallt-32cm/p/3725524</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-butterpastetli/p/5836746</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
         <v>4.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.93/100g</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2232,60 +2232,56 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig rund ausgewallt Ø32cm 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Butterpastetli 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5836746</t>
+          <t>3725524</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterpastetli</t>
+          <t>Leisi Blätterteig rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-butterpastetli/p/5836746</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-rund-ausgewallt-32cm/p/3725524</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
         <v>4.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.93/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2295,7 +2291,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2305,18 +2301,22 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterpastetli 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>Leisi Blätterteig rund ausgewallt Ø32cm 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2961,45 +2961,45 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5646435</t>
+          <t>6529967</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig eckig ausgewallt 25x42cm</t>
+          <t>Reiswaffeln Fair Trade Milchschokolade</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-eckig-ausgewallt-25x42cm/p/5646435</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-fair-trade-milchschokolade/p/6529967</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.96/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3019,46 +3019,46 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig eckig ausgewallt 25x42cm 5.30 Schweizer Franken</t>
+          <t>Reiswaffeln Fair Trade Milchschokolade 1.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6529967</t>
+          <t>6627621</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Reiswaffeln Fair Trade Milchschokolade</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-fair-trade-milchschokolade/p/6529967</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-naturaplan-bio-blaetterteig-ausgewallt/p/6627621</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>0.75/100g</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3092,46 +3092,46 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Reiswaffeln Fair Trade Milchschokolade 1.45 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 20% ab 2 Aktion 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6627621</t>
+          <t>3942004</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt</t>
+          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-naturaplan-bio-blaetterteig-ausgewallt/p/6627621</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-milchschokolade-mini/p/3942004</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.75/100g</t>
+          <t>3.67/100g</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3165,60 +3165,60 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 20% ab 2 Aktion 2.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3942004</t>
+          <t>5646435</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini</t>
+          <t>Leisi Blätterteig eckig ausgewallt 25x42cm</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-milchschokolade-mini/p/3942004</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-eckig-ausgewallt-25x42cm/p/5646435</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3.67/100g</t>
+          <t>0.96/100g</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3238,22 +3238,22 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini 2.20 Schweizer Franken</t>
+          <t>Leisi Blätterteig eckig ausgewallt 25x42cm 5.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4028,45 +4028,45 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6582922</t>
+          <t>6768832</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Frischback Pagnolbrot dunkel</t>
+          <t>Old el Paso Family Wrap Tortillas</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-pagnolbrot-dunkel/p/6582922</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-family-wrap-tortillas/p/6768832</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4086,60 +4086,56 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Frischback Pagnolbrot dunkel 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old el Paso Family Wrap Tortillas 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6768832</t>
+          <t>6582922</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Old el Paso Family Wrap Tortillas</t>
+          <t>Frischback Pagnolbrot dunkel</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-family-wrap-tortillas/p/6768832</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-pagnolbrot-dunkel/p/6582922</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4149,7 +4145,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4159,18 +4155,22 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Old el Paso Family Wrap Tortillas 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>Frischback Pagnolbrot dunkel 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5521,45 +5521,45 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6787088</t>
+          <t>3023436</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g</t>
+          <t>Old El Paso Fajita Kit</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit/p/3023436</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E73" t="n">
         <v>4.5</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.38/100g</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5579,60 +5579,56 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Fajita Kit 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3023436</t>
+          <t>6787088</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit</t>
+          <t>Pastetli 6x30g</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit/p/3023436</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
         <v>4.5</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1.38/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5642,7 +5638,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5652,18 +5648,22 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
+          <t>Pastetli 6x30g 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5801,35 +5801,35 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3041956</t>
+          <t>4886674</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Linzertorte</t>
+          <t>Dar-Vida Cracker Ur-Dinkel</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-ur-dinkel/p/4886674</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5859,46 +5859,46 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Linzertorte 3.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Ur-Dinkel 33% ab 3 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4886674</t>
+          <t>3041956</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel</t>
+          <t>Linzertorte</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-ur-dinkel/p/4886674</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5928,18 +5928,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Ur-Dinkel 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+          <t>Linzertorte 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6085,45 +6085,45 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6668458</t>
+          <t>6104289</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt</t>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-schoko-8-stueck/p/6104289</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.61/100g</t>
+          <t>1.14/100g</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6143,60 +6143,56 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6104289</t>
+          <t>6383995</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück</t>
+          <t>Bauli Croissant Apricot 6 Stück</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-schoko-8-stueck/p/6104289</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1.14/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6206,7 +6202,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6221,51 +6217,51 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück 3.20 Schweizer Franken</t>
+          <t>Bauli Croissant Apricot 6 Stück 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6383995</t>
+          <t>6668458</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück</t>
+          <t>Betty Bossi Kuchenteig ausgewallt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>0.61/100g</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6275,7 +6271,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6285,18 +6281,22 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
+          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6434,28 +6434,28 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6628847</t>
+          <t>4283951</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Naturaplan Bio Mehrkornbrötli</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628847</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E86" t="n">
         <v>4.5</v>
@@ -6467,12 +6467,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6492,43 +6492,43 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 5.10 Schweizer Franken</t>
+          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4283951</t>
+          <t>6628847</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-mehrkornbroetli/p/4283951</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628847</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
         <v>4.5</v>
@@ -6540,12 +6540,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6565,22 +6565,22 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mehrkornbrötli 0.95 Schweizer Franken</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake 5.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6795,45 +6795,45 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4835222</t>
+          <t>6797336</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Reiswaffeln Barbecue Flavour</t>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-barbecue-flavour/p/4835222</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3.38/100g</t>
+          <t>3.11/100g</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6853,60 +6853,56 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Reiswaffeln Barbecue Flavour 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6797336</t>
+          <t>4835222</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
+          <t>Reiswaffeln Barbecue Flavour</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-barbecue-flavour/p/4835222</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E92" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3.11/100g</t>
+          <t>3.38/100g</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6916,7 +6912,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6926,18 +6922,22 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück 8.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
+          <t>Reiswaffeln Barbecue Flavour 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7079,31 +7079,31 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6628848</t>
+          <t>6820357</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Betty Bossi Tiroler Cake</t>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-tiroler-cake/p/6628848</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820357</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -7112,12 +7112,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7137,39 +7137,43 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Betty Bossi Tiroler Cake 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse 4.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6638578</t>
+          <t>6628848</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Prix Garantie Pains au chocolat 8 Stück</t>
+          <t>Betty Bossi Tiroler Cake</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-pains-au-chocolat-8-stueck/p/6638578</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-tiroler-cake/p/6628848</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
         <v>4.5</v>
@@ -7181,12 +7185,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.72/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7196,7 +7200,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7206,42 +7210,42 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Prix Garantie Pains au chocolat 8 Stück 2.60 Schweizer Franken</t>
+          <t>Betty Bossi Tiroler Cake 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6820357</t>
+          <t>6638578</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
+          <t>Prix Garantie Pains au chocolat 8 Stück</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820357</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-pains-au-chocolat-8-stueck/p/6638578</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -7250,12 +7254,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>0.72/100g</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7265,7 +7269,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7275,22 +7279,18 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse 4.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Pains au chocolat 8 Stück 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8138,45 +8138,45 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4886668</t>
+          <t>5671230</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature</t>
+          <t>Betty Bossi Pizzateig Ø28cm</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8196,60 +8196,60 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature 33% ab 3 Aktion 3.60 Schweizer Franken</t>
+          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>5671230</t>
+          <t>4886668</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm</t>
+          <t>Dar-Vida Cracker Nature</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E111" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8269,22 +8269,22 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Nature 33% ab 3 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9416,45 +9416,45 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3235483</t>
+          <t>5732887</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9474,56 +9474,60 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
+          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5732887</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaecker-brot-vitalbrot-glutenfrei/p/5732887</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9533,7 +9537,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9543,60 +9547,56 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Schär Meisterbäcker Brot Vitalbrot glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>3235483</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9621,13 +9621,13 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9696,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10341,45 +10341,45 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6877241</t>
+          <t>3658651</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mais Tortillas</t>
+          <t>Mulino Bianco Weizen-Brot</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>MASAMOR</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>0.58/100g</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10399,60 +10399,56 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Mais Tortillas 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Weizen-Brot 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3658651</t>
+          <t>6877241</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot</t>
+          <t>Mais Tortillas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>MASAMOR</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.58/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10462,7 +10458,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10472,18 +10468,22 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
+          <t>Mais Tortillas 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10629,45 +10629,45 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6345143</t>
+          <t>6358647</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10687,56 +10687,56 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame 33% ab 3 Aktion 3.60 Schweizer Franken</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6358647</t>
+          <t>6345143</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback</t>
+          <t>Dar-Vida Simply Sesame</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10756,18 +10756,18 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback 4.40 Schweizer Franken</t>
+          <t>Dar-Vida Simply Sesame 33% ab 3 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11197,28 +11197,28 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E153" t="n">
         <v>4.5</v>
@@ -11230,12 +11230,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11260,51 +11260,55 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr"/>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>3040623</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Hug Zwieback ohne Zucker 250g</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E154" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11314,7 +11318,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11324,60 +11328,56 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3040623</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11397,18 +11397,18 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11692,45 +11692,45 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11750,60 +11750,60 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11823,22 +11823,22 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11980,7 +11980,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12049,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12329,45 +12329,45 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>4886676</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Dar-Vida Cracker Leinsamen</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E169" t="n">
         <v>4.5</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12387,18 +12387,18 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Leinsamen 33% ab 3 Aktion 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12467,45 +12467,45 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>4886676</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E171" t="n">
         <v>4.5</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12525,18 +12525,18 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen 33% ab 3 Aktion 3.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12605,31 +12605,31 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>4886666</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -12638,12 +12638,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12663,42 +12663,42 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
+          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>4886666</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E174" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -12707,12 +12707,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12732,18 +12732,18 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13027,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13100,45 +13100,45 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13158,56 +13158,56 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
+          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>7031403</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
         </is>
       </c>
       <c r="D181" t="n">
         <v>4</v>
       </c>
       <c r="E181" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13227,56 +13227,60 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr"/>
+          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>7031403</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13286,7 +13290,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13296,22 +13300,18 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14015,45 +14015,45 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>3726503</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Pasquier Schokobrötchen 16 Stück</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14073,56 +14073,56 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>3726503</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E194" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14132,7 +14132,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14147,51 +14147,51 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E195" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14211,56 +14211,58 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr"/>
+          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>18</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14270,7 +14272,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14280,44 +14282,42 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>4</v>
+      </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -14326,12 +14326,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14351,18 +14351,18 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14577,45 +14577,45 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>6338746</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E201" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14625,7 +14625,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14635,56 +14635,60 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N201" t="inlineStr"/>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E202" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14694,7 +14698,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14704,60 +14708,60 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14767,7 +14771,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14777,60 +14781,60 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E204" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14840,7 +14844,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14850,60 +14854,56 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>6338746</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Country Cracker Sesam Stange</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14923,18 +14923,18 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15007,7 +15007,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15080,7 +15080,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15567,7 +15567,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15636,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15705,7 +15705,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15778,7 +15778,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15847,7 +15847,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15916,7 +15916,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16062,7 +16062,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16135,7 +16135,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16204,7 +16204,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16423,43 +16423,45 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>6962218</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>3</v>
+      </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16469,7 +16471,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16479,56 +16481,54 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>4793918</t>
+          <t>6962218</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück</t>
+          <t>Old el Paso Wraps Classic</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>20</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16538,7 +16538,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16548,18 +16548,18 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
+          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16632,45 +16632,43 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>6739419</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16680,7 +16678,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16690,56 +16688,56 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>3861388</t>
+          <t>4793918</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig</t>
+          <t>St Michel Madeleines 10 Stück</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines-10-stueck/p/4793918</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E231" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Klas</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16749,7 +16747,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16759,54 +16757,56 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
+          <t>St Michel Madeleines 10 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>6739419</t>
+          <t>3861388</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g</t>
+          <t>Klas Jufka Filoteig</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>19</v>
+      </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Klas</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16826,18 +16826,18 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16910,7 +16910,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17052,7 +17052,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17190,45 +17190,45 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17253,51 +17253,51 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E239" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17307,7 +17307,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17322,51 +17322,51 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17401,31 +17401,31 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>5621833</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Mini Chococremecake</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -17434,12 +17434,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17459,42 +17459,44 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N241" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -17503,12 +17505,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17518,7 +17520,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17533,35 +17535,37 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>5621833</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Mini Chococremecake</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mini-chococremecake/p/5621833</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>10</v>
+      </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -17570,12 +17574,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17585,7 +17589,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17600,51 +17604,51 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>Mini Chococremecake 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E244" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17654,7 +17658,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17669,51 +17673,51 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17723,7 +17727,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17733,60 +17737,60 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E246" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17796,7 +17800,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17806,22 +17810,18 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17890,7 +17890,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17963,7 +17963,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18032,7 +18032,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18170,7 +18170,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18243,7 +18243,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18312,7 +18312,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18454,45 +18454,45 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E256" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18502,7 +18502,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18512,60 +18512,56 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E257" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18575,7 +18571,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18585,18 +18581,22 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N257" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18738,7 +18738,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18880,7 +18880,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18949,7 +18949,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19018,7 +19018,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19160,7 +19160,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19373,7 +19373,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19442,7 +19442,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19511,7 +19511,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19578,7 +19578,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19647,7 +19647,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19716,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19789,31 +19789,31 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E275" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -19822,12 +19822,12 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19847,54 +19847,56 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -19904,7 +19906,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19919,51 +19921,49 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -19973,7 +19973,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19988,51 +19988,49 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Kräuter 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20042,7 +20040,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20052,54 +20050,56 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>41</v>
+      </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20109,7 +20109,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20119,42 +20119,40 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>41</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -20163,12 +20161,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20178,7 +20176,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20188,40 +20186,46 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>3</v>
+      </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -20230,12 +20234,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20245,7 +20249,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20255,22 +20259,18 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20339,7 +20339,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20408,7 +20408,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20477,28 +20477,28 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20510,12 +20510,12 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20535,39 +20535,39 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20579,12 +20579,12 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20604,35 +20604,35 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -20648,12 +20648,12 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20663,7 +20663,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20673,44 +20673,46 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>2</v>
+      </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -20720,7 +20722,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20730,7 +20732,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20740,35 +20742,39 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -20779,7 +20785,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -20789,7 +20795,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20799,7 +20805,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20809,60 +20815,56 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E290" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20872,7 +20874,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20887,51 +20889,49 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
-        </is>
-      </c>
-      <c r="D291" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
       <c r="E291" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20951,40 +20951,42 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>8</v>
+      </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -20993,12 +20995,12 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21008,7 +21010,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21023,51 +21025,49 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
       <c r="E293" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21077,7 +21077,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21092,55 +21092,51 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E294" t="n">
         <v>4.5</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21150,7 +21146,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21160,60 +21156,60 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E295" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21223,7 +21219,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21233,18 +21229,22 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N295" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21666,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22084,45 +22084,43 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
       <c r="E308" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22132,7 +22130,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22142,54 +22140,60 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N308" t="inlineStr"/>
+          <t>Dar-Vida Nature 33% ab 3 Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>8</v>
+      </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22199,7 +22203,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22209,22 +22213,18 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 33% ab 3 Aktion 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22293,7 +22293,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22794,7 +22794,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22863,7 +22863,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22932,7 +22932,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23070,7 +23070,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23283,7 +23283,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23419,7 +23419,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23630,7 +23630,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23835,7 +23835,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23904,7 +23904,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-04 12:54:40</t>
+          <t>2023-02-04 20:49:50</t>
         </is>
       </c>
     </row>
